--- a/preliminary/L1Menu_Collisions2022_v0_1_6/PrescaleTable/L1Menu_Collisions2022_v0_1_6.xlsx
+++ b/preliminary/L1Menu_Collisions2022_v0_1_6/PrescaleTable/L1Menu_Collisions2022_v0_1_6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Desktop/L1Menus/L1Menu_Collisions2022_v0_1_6/PrescaleTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC50314-EA03-6E4C-9B1A-C8D34D895FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77188C00-D777-3942-999C-1965CDAC0E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22300" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1211,7 +1211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1223,8 +1223,13 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1237,8 +1242,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1291,11 +1302,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1305,6 +1344,8 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2497,14 +2538,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV385"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="L129" sqref="L129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="256" width="8.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3394,28 +3435,28 @@
         <v>0</v>
       </c>
       <c r="D26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6400,32 +6441,32 @@
       <c r="B112" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C112" s="5">
-        <v>0</v>
-      </c>
-      <c r="D112" s="5">
-        <v>1</v>
-      </c>
-      <c r="E112" s="5">
-        <v>1</v>
-      </c>
-      <c r="F112" s="5">
-        <v>1</v>
-      </c>
-      <c r="G112" s="5">
-        <v>1</v>
-      </c>
-      <c r="H112" s="5">
-        <v>1</v>
-      </c>
-      <c r="I112" s="5">
-        <v>1</v>
-      </c>
-      <c r="J112" s="5">
-        <v>1</v>
-      </c>
-      <c r="K112" s="5">
-        <v>1</v>
+      <c r="C112" s="7">
+        <v>0</v>
+      </c>
+      <c r="D112" s="8">
+        <v>0</v>
+      </c>
+      <c r="E112" s="8">
+        <v>0</v>
+      </c>
+      <c r="F112" s="8">
+        <v>0</v>
+      </c>
+      <c r="G112" s="8">
+        <v>0</v>
+      </c>
+      <c r="H112" s="8">
+        <v>0</v>
+      </c>
+      <c r="I112" s="8">
+        <v>0</v>
+      </c>
+      <c r="J112" s="8">
+        <v>0</v>
+      </c>
+      <c r="K112" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6435,32 +6476,32 @@
       <c r="B113" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C113" s="5">
-        <v>0</v>
-      </c>
-      <c r="D113" s="5">
-        <v>1</v>
-      </c>
-      <c r="E113" s="5">
-        <v>1</v>
-      </c>
-      <c r="F113" s="5">
-        <v>1</v>
-      </c>
-      <c r="G113" s="5">
-        <v>1</v>
-      </c>
-      <c r="H113" s="5">
-        <v>1</v>
-      </c>
-      <c r="I113" s="5">
-        <v>1</v>
-      </c>
-      <c r="J113" s="5">
-        <v>1</v>
-      </c>
-      <c r="K113" s="5">
-        <v>1</v>
+      <c r="C113" s="7">
+        <v>0</v>
+      </c>
+      <c r="D113" s="8">
+        <v>0</v>
+      </c>
+      <c r="E113" s="8">
+        <v>0</v>
+      </c>
+      <c r="F113" s="8">
+        <v>0</v>
+      </c>
+      <c r="G113" s="8">
+        <v>0</v>
+      </c>
+      <c r="H113" s="8">
+        <v>0</v>
+      </c>
+      <c r="I113" s="8">
+        <v>0</v>
+      </c>
+      <c r="J113" s="8">
+        <v>0</v>
+      </c>
+      <c r="K113" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6470,32 +6511,32 @@
       <c r="B114" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C114" s="5">
-        <v>0</v>
-      </c>
-      <c r="D114" s="5">
-        <v>1</v>
-      </c>
-      <c r="E114" s="5">
-        <v>1</v>
-      </c>
-      <c r="F114" s="5">
-        <v>1</v>
-      </c>
-      <c r="G114" s="5">
-        <v>1</v>
-      </c>
-      <c r="H114" s="5">
-        <v>1</v>
-      </c>
-      <c r="I114" s="5">
-        <v>1</v>
-      </c>
-      <c r="J114" s="5">
-        <v>1</v>
-      </c>
-      <c r="K114" s="5">
-        <v>1</v>
+      <c r="C114" s="7">
+        <v>0</v>
+      </c>
+      <c r="D114" s="8">
+        <v>0</v>
+      </c>
+      <c r="E114" s="8">
+        <v>0</v>
+      </c>
+      <c r="F114" s="8">
+        <v>0</v>
+      </c>
+      <c r="G114" s="8">
+        <v>0</v>
+      </c>
+      <c r="H114" s="8">
+        <v>0</v>
+      </c>
+      <c r="I114" s="8">
+        <v>0</v>
+      </c>
+      <c r="J114" s="8">
+        <v>0</v>
+      </c>
+      <c r="K114" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6995,32 +7036,32 @@
       <c r="B129" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C129" s="5">
-        <v>0</v>
-      </c>
-      <c r="D129" s="5">
-        <v>1</v>
-      </c>
-      <c r="E129" s="5">
-        <v>1</v>
-      </c>
-      <c r="F129" s="5">
-        <v>1</v>
-      </c>
-      <c r="G129" s="5">
-        <v>1</v>
-      </c>
-      <c r="H129" s="5">
-        <v>1</v>
-      </c>
-      <c r="I129" s="5">
-        <v>1</v>
-      </c>
-      <c r="J129" s="5">
-        <v>1</v>
-      </c>
-      <c r="K129" s="5">
-        <v>1</v>
+      <c r="C129" s="7">
+        <v>0</v>
+      </c>
+      <c r="D129" s="8">
+        <v>0</v>
+      </c>
+      <c r="E129" s="8">
+        <v>0</v>
+      </c>
+      <c r="F129" s="8">
+        <v>0</v>
+      </c>
+      <c r="G129" s="8">
+        <v>0</v>
+      </c>
+      <c r="H129" s="8">
+        <v>0</v>
+      </c>
+      <c r="I129" s="8">
+        <v>0</v>
+      </c>
+      <c r="J129" s="8">
+        <v>0</v>
+      </c>
+      <c r="K129" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7030,32 +7071,32 @@
       <c r="B130" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C130" s="5">
-        <v>0</v>
-      </c>
-      <c r="D130" s="5">
-        <v>1</v>
-      </c>
-      <c r="E130" s="5">
-        <v>1</v>
-      </c>
-      <c r="F130" s="5">
-        <v>1</v>
-      </c>
-      <c r="G130" s="5">
-        <v>1</v>
-      </c>
-      <c r="H130" s="5">
-        <v>1</v>
-      </c>
-      <c r="I130" s="5">
-        <v>1</v>
-      </c>
-      <c r="J130" s="5">
-        <v>1</v>
-      </c>
-      <c r="K130" s="5">
-        <v>1</v>
+      <c r="C130" s="7">
+        <v>0</v>
+      </c>
+      <c r="D130" s="8">
+        <v>0</v>
+      </c>
+      <c r="E130" s="8">
+        <v>0</v>
+      </c>
+      <c r="F130" s="8">
+        <v>0</v>
+      </c>
+      <c r="G130" s="8">
+        <v>0</v>
+      </c>
+      <c r="H130" s="8">
+        <v>0</v>
+      </c>
+      <c r="I130" s="8">
+        <v>0</v>
+      </c>
+      <c r="J130" s="8">
+        <v>0</v>
+      </c>
+      <c r="K130" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7065,32 +7106,32 @@
       <c r="B131" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C131" s="5">
-        <v>0</v>
-      </c>
-      <c r="D131" s="5">
-        <v>1</v>
-      </c>
-      <c r="E131" s="5">
-        <v>1</v>
-      </c>
-      <c r="F131" s="5">
-        <v>1</v>
-      </c>
-      <c r="G131" s="5">
-        <v>1</v>
-      </c>
-      <c r="H131" s="5">
-        <v>1</v>
-      </c>
-      <c r="I131" s="5">
-        <v>1</v>
-      </c>
-      <c r="J131" s="5">
-        <v>1</v>
-      </c>
-      <c r="K131" s="5">
-        <v>1</v>
+      <c r="C131" s="7">
+        <v>0</v>
+      </c>
+      <c r="D131" s="8">
+        <v>0</v>
+      </c>
+      <c r="E131" s="8">
+        <v>0</v>
+      </c>
+      <c r="F131" s="8">
+        <v>0</v>
+      </c>
+      <c r="G131" s="8">
+        <v>0</v>
+      </c>
+      <c r="H131" s="8">
+        <v>0</v>
+      </c>
+      <c r="I131" s="8">
+        <v>0</v>
+      </c>
+      <c r="J131" s="8">
+        <v>0</v>
+      </c>
+      <c r="K131" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7415,32 +7456,32 @@
       <c r="B141" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="C141" s="5">
-        <v>0</v>
-      </c>
-      <c r="D141" s="5">
-        <v>1</v>
-      </c>
-      <c r="E141" s="5">
-        <v>1</v>
-      </c>
-      <c r="F141" s="5">
-        <v>1</v>
-      </c>
-      <c r="G141" s="5">
-        <v>1</v>
-      </c>
-      <c r="H141" s="5">
-        <v>1</v>
-      </c>
-      <c r="I141" s="5">
-        <v>1</v>
-      </c>
-      <c r="J141" s="5">
-        <v>1</v>
-      </c>
-      <c r="K141" s="5">
-        <v>1</v>
+      <c r="C141" s="7">
+        <v>0</v>
+      </c>
+      <c r="D141" s="8">
+        <v>0</v>
+      </c>
+      <c r="E141" s="8">
+        <v>0</v>
+      </c>
+      <c r="F141" s="8">
+        <v>0</v>
+      </c>
+      <c r="G141" s="8">
+        <v>0</v>
+      </c>
+      <c r="H141" s="8">
+        <v>0</v>
+      </c>
+      <c r="I141" s="8">
+        <v>0</v>
+      </c>
+      <c r="J141" s="8">
+        <v>0</v>
+      </c>
+      <c r="K141" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7450,32 +7491,32 @@
       <c r="B142" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C142" s="5">
-        <v>0</v>
-      </c>
-      <c r="D142" s="5">
-        <v>1</v>
-      </c>
-      <c r="E142" s="5">
-        <v>1</v>
-      </c>
-      <c r="F142" s="5">
-        <v>1</v>
-      </c>
-      <c r="G142" s="5">
-        <v>1</v>
-      </c>
-      <c r="H142" s="5">
-        <v>1</v>
-      </c>
-      <c r="I142" s="5">
-        <v>1</v>
-      </c>
-      <c r="J142" s="5">
-        <v>1</v>
-      </c>
-      <c r="K142" s="5">
-        <v>1</v>
+      <c r="C142" s="7">
+        <v>0</v>
+      </c>
+      <c r="D142" s="8">
+        <v>0</v>
+      </c>
+      <c r="E142" s="8">
+        <v>0</v>
+      </c>
+      <c r="F142" s="8">
+        <v>0</v>
+      </c>
+      <c r="G142" s="8">
+        <v>0</v>
+      </c>
+      <c r="H142" s="8">
+        <v>0</v>
+      </c>
+      <c r="I142" s="8">
+        <v>0</v>
+      </c>
+      <c r="J142" s="8">
+        <v>0</v>
+      </c>
+      <c r="K142" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
